--- a/Question_Sets/Role-specific skills/Front Desk Receptionist.xlsx
+++ b/Question_Sets/Role-specific skills/Front Desk Receptionist.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working as a receptionist at a management consulting company. One of your consultants has just come out of a performance review meeting and into the reception area. They are visibly upset and crying loudly, but you are on the phone with a client. Which action should you take?', 'ques_type': 2, 'options': ['Continue the client phone call and report the consultant to their supervisor. ', 'Ask the client if you can call them back shortly and comfort the consultant.', 'Continue the client phone call and tell the consultant that they have behaved unprofessionally.', 'Ask the consultant to leave the reception area, as they are disturbing your phone call.'], 'score': 'Continue the client phone call and report the consultant to their supervisor.'}, {'title': 'You are a virtual receptionist working for an agency. At the moment, you are supporting an online interview preparation company. A customer has called to complain about one of the consultants and is demanding a refund. You have been told to direct customers with complaints to a link on the company’s website, but the customer is not accepting this and is refusing to end the call. As a result, you are getting behind on other calls, including potential new customers.Which action should you take?', 'ques_type': 2, 'options': ['Move on to new calls and screen the customer’s number.', 'Let the client know that you will message the company immediately after the call.', 'Ask the customer to call you back at a less busy time.', 'Reiterate to the customer the company’s refund policy. '], 'score': 'Let the client know that you will message the company immediately after the call.'}, {'title': 'You are working as a receptionist at a busy medical center. You notice that your co-receptionist is engaging in a heated argument with one of the patients. Your co-receptionist has started to raise their voice and is constantly interrupting the patient every time they start to speak.Which action should you take?', 'ques_type': 2, 'options': ['Let your co-receptionist continue to deal with the situation. ', 'Ask the co-receptionist to step away and let you talk to the patient. ', 'Call security. ', 'Start talking over the co-receptionist until they stop interrupting the patient. '], 'score': 'Ask the co-receptionist to step away and let you talk to the patient.'}, {'title': 'You are the receptionist at a luxury spa. One of your regular high-value clients has booked a package for today that included a taster service at the chef’s table in the spa’s restaurant. The client has enjoyed the spa services this morning and has just entered the restaurant for lunch. However, an issue with the booking has meant that the chef’s table is already occupied. They are visibly upset, and demand that they receive their full package today.Which action should you take?', 'ques_type': 2, 'options': ['Offer the client a refund for the restaurant experience portion of their package. ', 'Alert the duty manager to the issue and ask them for further directions.', 'Offer the client a refund for their full package. ', 'Book the client in at the chef’s table for the next available slot.'], 'score': 'Alert the duty manager to the issue and ask them for further directions.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working as a receptionist at a management consulting company. One of your consultants has just come out of a performance review meeting and into the reception area. They are visibly upset and crying loudly, but you are on the phone with a client. Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Continue the client phone call and report the consultant to their supervisor. ",
+            "Ask the client if you can call them back shortly and comfort the consultant.",
+            "Continue the client phone call and tell the consultant that they have behaved unprofessionally.",
+            "Ask the consultant to leave the reception area, as they are disturbing your phone call."
+        ],
+        "score": "Continue the client phone call and report the consultant to their supervisor."
+    },
+    {
+        "title": "You are a virtual receptionist working for an agency. At the moment, you are supporting an online interview preparation company. A customer has called to complain about one of the consultants and is demanding a refund. You have been told to direct customers with complaints to a link on the company\u2019s website, but the customer is not accepting this and is refusing to end the call. As a result, you are getting behind on other calls, including potential new customers.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Move on to new calls and screen the customer\u2019s number.",
+            "Let the client know that you will message the company immediately after the call.",
+            "Ask the customer to call you back at a less busy time.",
+            "Reiterate to the customer the company\u2019s refund policy. "
+        ],
+        "score": "Let the client know that you will message the company immediately after the call."
+    },
+    {
+        "title": "You are working as a receptionist at a busy medical center. You notice that your co-receptionist is engaging in a heated argument with one of the patients. Your co-receptionist has started to raise their voice and is constantly interrupting the patient every time they start to speak.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Let your co-receptionist continue to deal with the situation. ",
+            "Ask the co-receptionist to step away and let you talk to the patient. ",
+            "Call security. ",
+            "Start talking over the co-receptionist until they stop interrupting the patient. "
+        ],
+        "score": "Ask the co-receptionist to step away and let you talk to the patient."
+    },
+    {
+        "title": "You are the receptionist at a luxury spa. One of your regular high-value clients has booked a package for today that included a taster service at the chef\u2019s table in the spa\u2019s restaurant. The client has enjoyed the spa services this morning and has just entered the restaurant for lunch. However, an issue with the booking has meant that the chef\u2019s table is already occupied. They are visibly upset, and demand that they receive their full package today.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Offer the client a refund for the restaurant experience portion of their package. ",
+            "Alert the duty manager to the issue and ask them for further directions.",
+            "Offer the client a refund for their full package. ",
+            "Book the client in at the chef\u2019s table for the next available slot."
+        ],
+        "score": "Alert the duty manager to the issue and ask them for further directions."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
